--- a/Data/Raw data/nejm_hr_data.xlsx
+++ b/Data/Raw data/nejm_hr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianan0099/PycharmProjects/ObesityUnaffordability/Data/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFBD574-ADF2-6B4B-990A-C7FF28CAB23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC54FF-6E07-364C-8CA5-03C9EF380B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{ADF2FE97-51DA-F342-BEE5-F7EB2CD0F1F4}"/>
+    <workbookView xWindow="20160" yWindow="1140" windowWidth="27640" windowHeight="15980" activeTab="1" xr2:uid="{ADF2FE97-51DA-F342-BEE5-F7EB2CD0F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="data source" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>hr_male</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>adjusted hr from Appendix table 3</t>
+  </si>
+  <si>
+    <t>ASR_male</t>
+  </si>
+  <si>
+    <t>ASR_female</t>
   </si>
 </sst>
 </file>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5263AAD6-20B7-7C45-BD16-AC9DF7128CC8}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,7 +647,7 @@
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -658,22 +664,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -687,25 +699,31 @@
         <v>2</v>
       </c>
       <c r="E2" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="F2" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1274</v>
+      </c>
+      <c r="G2" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>610511</v>
       </c>
-      <c r="H2" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
+        <v>1.78</v>
+      </c>
+      <c r="J2" s="7">
+        <v>734</v>
+      </c>
+      <c r="K2" s="9">
         <v>0.02</v>
       </c>
-      <c r="J2" s="9">
+      <c r="L2" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -719,25 +737,31 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="9">
+        <v>1.47</v>
+      </c>
+      <c r="F3" s="7">
+        <v>833</v>
+      </c>
+      <c r="G3" s="9">
         <v>0.01</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>610511</v>
       </c>
-      <c r="H3" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="J3" s="7">
+        <v>486</v>
+      </c>
+      <c r="K3" s="9">
         <v>0.06</v>
       </c>
-      <c r="J3" s="9">
+      <c r="L3" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -751,25 +775,31 @@
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="F4" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>610</v>
+      </c>
+      <c r="G4" s="9">
         <v>0.08</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>610511</v>
       </c>
-      <c r="H4" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="J4" s="7">
+        <v>389</v>
+      </c>
+      <c r="K4" s="9">
         <v>0.22</v>
       </c>
-      <c r="J4" s="9">
+      <c r="L4" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -785,23 +815,29 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
+        <v>511</v>
+      </c>
+      <c r="G5" s="9">
         <v>0.23</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>610511</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="7">
+        <v>362</v>
+      </c>
+      <c r="K5" s="9">
         <v>0.25</v>
       </c>
-      <c r="J5" s="9">
+      <c r="L5" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -817,23 +853,29 @@
       <c r="E6" s="7">
         <v>0.97</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
+        <v>541</v>
+      </c>
+      <c r="G6" s="9">
         <v>0.3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>610511</v>
       </c>
-      <c r="H6" s="7">
-        <v>1.03</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="J6" s="7">
+        <v>376</v>
+      </c>
+      <c r="K6" s="9">
         <v>0.19</v>
       </c>
-      <c r="J6" s="9">
+      <c r="L6" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -847,25 +889,31 @@
         <v>7</v>
       </c>
       <c r="E7" s="7">
-        <v>1.03</v>
-      </c>
-      <c r="F7" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F7" s="7">
+        <v>569</v>
+      </c>
+      <c r="G7" s="9">
         <v>0.19</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>610511</v>
       </c>
-      <c r="H7" s="7">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>408</v>
+      </c>
+      <c r="K7" s="9">
         <v>0.11</v>
       </c>
-      <c r="J7" s="9">
+      <c r="L7" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -879,25 +927,31 @@
         <v>8</v>
       </c>
       <c r="E8" s="7">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F8" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>671</v>
+      </c>
+      <c r="G8" s="9">
         <v>0.15</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>610511</v>
       </c>
-      <c r="H8" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="J8" s="7">
+        <v>463</v>
+      </c>
+      <c r="K8" s="9">
         <v>0.11</v>
       </c>
-      <c r="J8" s="9">
+      <c r="L8" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -911,25 +965,31 @@
         <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="F9" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="F9" s="7">
+        <v>857</v>
+      </c>
+      <c r="G9" s="9">
         <v>0.03</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>610511</v>
       </c>
-      <c r="H9" s="7">
-        <v>1.59</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="J9" s="7">
+        <v>581</v>
+      </c>
+      <c r="K9" s="9">
         <v>0.04</v>
       </c>
-      <c r="J9" s="9">
+      <c r="L9" s="9">
         <v>852447</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -943,25 +1003,32 @@
         <v>10</v>
       </c>
       <c r="E10" s="7">
-        <v>1.93</v>
-      </c>
-      <c r="F10" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1128</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.01</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>610511</v>
       </c>
-      <c r="H10" s="7">
-        <v>1.99</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
+        <v>2.13</v>
+      </c>
+      <c r="J10" s="7">
+        <v>785</v>
+      </c>
+      <c r="K10" s="9">
         <v>0.02</v>
       </c>
-      <c r="J10" s="9">
+      <c r="L10" s="9">
         <v>852447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>